--- a/biology/Botanique/New_Season_Comber_Potatoes/New_Season_Comber_Potatoes.xlsx
+++ b/biology/Botanique/New_Season_Comber_Potatoes/New_Season_Comber_Potatoes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Les New Season Comber Potatoes (patates nouvelles de Comber) sont une production locale de pommes de terre  spécifique d'Irlande du Nord (Royaume-Uni). Ces pommes de terre primeurs sont aussi commercialisées sous le nom de Comber Earlies[1].
-Cette production a fait l'objet d'une demande de classement en IGP (indication géographique protégée) au niveau européen le 11 juin 2010[2].  
+Les New Season Comber Potatoes (patates nouvelles de Comber) sont une production locale de pommes de terre  spécifique d'Irlande du Nord (Royaume-Uni). Ces pommes de terre primeurs sont aussi commercialisées sous le nom de Comber Earlies.
+Cette production a fait l'objet d'une demande de classement en IGP (indication géographique protégée) au niveau européen le 11 juin 2010.  
 </t>
         </is>
       </c>
@@ -513,11 +525,13 @@
           <t>Caractéristiques du produit</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les New Season Comber Potatoes sont des pommes de terre de forme ronde ou ovale, plutôt petites (calibre de 30 à 70 mm), à chair blanc crème, à peau lisse et fine, de couleur variable selon les variétés.
 Aucune variété n'est imposée, sous réserve que les plants utilisés appartiennent à une variété inscrite dans les catalogues officiels européens.
-Ces pommes de terre ont la saveur typique des tubercules « primeurs», sucrée et au goût de noisette[1].
+Ces pommes de terre ont la saveur typique des tubercules « primeurs», sucrée et au goût de noisette.
 </t>
         </is>
       </c>
@@ -546,12 +560,14 @@
           <t>Aire géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aire géographique de production des New Season Comber Potatoes correspond à une zone située à l'est et au sud de Belfast, connue sous le nom de « Hamilton Montgomery lands », qui comprend en tout ou partie cinq communes (councils) : 
 Ards Borough jusqu'à Ardkeen vers le sud sur la péninsule d'Ards et jusqu'à Crossgar et Killyleagh sur la rive ouest du loch de Strangford (bras de mer isolé à l'est  par la péninsule d'Ards),
 North Down Borough,
-et partiellement Castlereagh, Belfast et Down District, à l'est de la route (A7) reliant Carryduff à Killyleagh via Saintfield et Crossgar[1].
+et partiellement Castlereagh, Belfast et Down District, à l'est de la route (A7) reliant Carryduff à Killyleagh via Saintfield et Crossgar.
 Comber, qui a donné son nom à l'appellation est une petite ville (9 000 habitants) situé à peu près au centre de la zone de culture, dans la commune d'Ards sur la rive nord du loch de Strangford. 
 </t>
         </is>
@@ -582,6 +598,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
